--- a/dataset/df_ingresos_final.xlsx
+++ b/dataset/df_ingresos_final.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G36"/>
+  <dimension ref="A1:F36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,15 +456,10 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Ingresos(Dolar Oficial)</t>
+          <t>Ingresos(Dolar Blue)</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Ingresos(Dolar Blue)</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Rendimiento_ingresos</t>
         </is>
@@ -486,12 +481,9 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>3311935.858801333</v>
-      </c>
-      <c r="F2" t="n">
         <v>2154551.775292419</v>
       </c>
-      <c r="G2" t="inlineStr"/>
+      <c r="F2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -509,12 +501,9 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>3630206.663607104</v>
+        <v>2361600.147227437</v>
       </c>
       <c r="F3" t="n">
-        <v>2361600.147227437</v>
-      </c>
-      <c r="G3" t="n">
         <v>0.09609811855503771</v>
       </c>
     </row>
@@ -534,12 +523,9 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>3860863.199555628</v>
+        <v>2511651.799855322</v>
       </c>
       <c r="F4" t="n">
-        <v>2511651.799855322</v>
-      </c>
-      <c r="G4" t="n">
         <v>0.06353812807983089</v>
       </c>
     </row>
@@ -559,12 +545,9 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>4384506.970443951</v>
+        <v>2852303.812541516</v>
       </c>
       <c r="F5" t="n">
-        <v>2852303.812541516</v>
-      </c>
-      <c r="G5" t="n">
         <v>0.1356286777911719</v>
       </c>
     </row>
@@ -584,12 +567,9 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>5412192.35856826</v>
+        <v>3520855.823155236</v>
       </c>
       <c r="F6" t="n">
-        <v>3520855.823155236</v>
-      </c>
-      <c r="G6" t="n">
         <v>0.2343901823060053</v>
       </c>
     </row>
@@ -609,12 +589,9 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>5218413.673318536</v>
+        <v>3394794.743436824</v>
       </c>
       <c r="F7" t="n">
-        <v>3394794.743436824</v>
-      </c>
-      <c r="G7" t="n">
         <v>-0.03580410163045017</v>
       </c>
     </row>
@@ -634,12 +611,9 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>5720020.959334074</v>
+        <v>3721111.107841155</v>
       </c>
       <c r="F8" t="n">
-        <v>3721111.107841155</v>
-      </c>
-      <c r="G8" t="n">
         <v>0.09612256088094905</v>
       </c>
     </row>
@@ -659,12 +633,9 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>5967701.671476138</v>
+        <v>3882237.693862816</v>
       </c>
       <c r="F9" t="n">
-        <v>3882237.693862816</v>
-      </c>
-      <c r="G9" t="n">
         <v>0.04330066513792967</v>
       </c>
     </row>
@@ -684,12 +655,9 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>6589173.01498335</v>
+        <v>4286530.603971118</v>
       </c>
       <c r="F10" t="n">
-        <v>4286530.603971118</v>
-      </c>
-      <c r="G10" t="n">
         <v>0.1041391439651991</v>
       </c>
     </row>
@@ -709,12 +677,9 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>7252209.320199782</v>
+        <v>4717863.247292422</v>
       </c>
       <c r="F11" t="n">
-        <v>4717863.247292422</v>
-      </c>
-      <c r="G11" t="n">
         <v>0.1006251169469569</v>
       </c>
     </row>
@@ -734,12 +699,9 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>7671966.191849774</v>
+        <v>4990932.51903007</v>
       </c>
       <c r="F12" t="n">
-        <v>4990932.51903007</v>
-      </c>
-      <c r="G12" t="n">
         <v>0.05787986158656939</v>
       </c>
     </row>
@@ -759,12 +721,9 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>8306304.543039964</v>
+        <v>5403595.951825998</v>
       </c>
       <c r="F13" t="n">
-        <v>5403595.951825998</v>
-      </c>
-      <c r="G13" t="n">
         <v>0.08268263119616857</v>
       </c>
     </row>
@@ -784,12 +743,9 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>9657271.277880132</v>
+        <v>6282455.899906136</v>
       </c>
       <c r="F14" t="n">
-        <v>6282455.899906136</v>
-      </c>
-      <c r="G14" t="n">
         <v>0.1626435351412889</v>
       </c>
     </row>
@@ -809,12 +765,9 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>10742116.45759157</v>
+        <v>6988192.728007221</v>
       </c>
       <c r="F15" t="n">
-        <v>6988192.728007221</v>
-      </c>
-      <c r="G15" t="n">
         <v>0.1123345454938456</v>
       </c>
     </row>
@@ -834,12 +787,9 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>11172028.70382908</v>
+        <v>7267868.492527075</v>
       </c>
       <c r="F16" t="n">
-        <v>7267868.492527075</v>
-      </c>
-      <c r="G16" t="n">
         <v>0.04002118650777507</v>
       </c>
     </row>
@@ -859,12 +809,9 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>12459630.84193119</v>
+        <v>8105507.139768953</v>
       </c>
       <c r="F17" t="n">
-        <v>8105507.139768953</v>
-      </c>
-      <c r="G17" t="n">
         <v>0.1152523120228648</v>
       </c>
     </row>
@@ -884,12 +831,9 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>14618711.68800594</v>
+        <v>9510078.867071014</v>
       </c>
       <c r="F18" t="n">
-        <v>9510078.867071014</v>
-      </c>
-      <c r="G18" t="n">
         <v>0.1732861008055441</v>
       </c>
     </row>
@@ -909,12 +853,9 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>15892860.666719</v>
+        <v>10338965.67560565</v>
       </c>
       <c r="F19" t="n">
-        <v>10338965.67560565</v>
-      </c>
-      <c r="G19" t="n">
         <v>0.08715877335199412</v>
       </c>
     </row>
@@ -934,12 +875,9 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>17104307.09498665</v>
+        <v>11127061.87190106</v>
       </c>
       <c r="F20" t="n">
-        <v>11127061.87190106</v>
-      </c>
-      <c r="G20" t="n">
         <v>0.07622582577625671</v>
       </c>
     </row>
@@ -959,12 +897,9 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>18465800.87570433</v>
+        <v>12012770.10036795</v>
       </c>
       <c r="F21" t="n">
-        <v>12012770.10036795</v>
-      </c>
-      <c r="G21" t="n">
         <v>0.0795994700724679</v>
       </c>
     </row>
@@ -984,12 +919,9 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>22427762.2318007</v>
+        <v>14590190.4482689</v>
       </c>
       <c r="F22" t="n">
-        <v>14590190.4482689</v>
-      </c>
-      <c r="G22" t="n">
         <v>0.2145567031056402</v>
       </c>
     </row>
@@ -1009,12 +941,9 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>23022328.1842465</v>
+        <v>14976980.28448093</v>
       </c>
       <c r="F23" t="n">
-        <v>14976980.28448093</v>
-      </c>
-      <c r="G23" t="n">
         <v>0.02651026644123918</v>
       </c>
     </row>
@@ -1034,12 +963,9 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>24031907.26375417</v>
+        <v>15633753.38963358</v>
       </c>
       <c r="F24" t="n">
-        <v>15633753.38963358</v>
-      </c>
-      <c r="G24" t="n">
         <v>0.0438521713107406</v>
       </c>
     </row>
@@ -1059,12 +985,9 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>26824917.53497813</v>
+        <v>17450722.52636484</v>
       </c>
       <c r="F25" t="n">
-        <v>17450722.52636484</v>
-      </c>
-      <c r="G25" t="n">
         <v>0.116220915825374</v>
       </c>
     </row>
@@ -1084,12 +1007,9 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>33236644.23090914</v>
+        <v>21621816.93288746</v>
       </c>
       <c r="F26" t="n">
-        <v>21621816.93288746</v>
-      </c>
-      <c r="G26" t="n">
         <v>0.2390213012796958</v>
       </c>
     </row>
@@ -1109,12 +1029,9 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>35629829.06932701</v>
+        <v>23178683.02632754</v>
       </c>
       <c r="F27" t="n">
-        <v>23178683.02632754</v>
-      </c>
-      <c r="G27" t="n">
         <v>0.07200440639528459</v>
       </c>
     </row>
@@ -1134,12 +1051,9 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>35513256.97080937</v>
+        <v>23102848.03660595</v>
       </c>
       <c r="F28" t="n">
-        <v>23102848.03660595</v>
-      </c>
-      <c r="G28" t="n">
         <v>-0.003271755760905142</v>
       </c>
     </row>
@@ -1159,12 +1073,9 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>37224975.2678266</v>
+        <v>24216391.85293268</v>
       </c>
       <c r="F29" t="n">
-        <v>24216391.85293268</v>
-      </c>
-      <c r="G29" t="n">
         <v>0.04819941742950239</v>
       </c>
     </row>
@@ -1184,12 +1095,9 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>40706294.51985843</v>
+        <v>26481134.55768408</v>
       </c>
       <c r="F30" t="n">
-        <v>26481134.55768408</v>
-      </c>
-      <c r="G30" t="n">
         <v>0.09352106286127539</v>
       </c>
     </row>
@@ -1209,12 +1117,9 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>42441361.41347666</v>
+        <v>27609867.60544583</v>
       </c>
       <c r="F31" t="n">
-        <v>27609867.60544583</v>
-      </c>
-      <c r="G31" t="n">
         <v>0.04262404412103344</v>
       </c>
     </row>
@@ -1234,12 +1139,9 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>47724688.44930352</v>
+        <v>31046891.1861534</v>
       </c>
       <c r="F32" t="n">
-        <v>31046891.1861534</v>
-      </c>
-      <c r="G32" t="n">
         <v>0.1244853336431664</v>
       </c>
     </row>
@@ -1259,12 +1161,9 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>50463803.73475304</v>
+        <v>32828799.39712093</v>
       </c>
       <c r="F33" t="n">
-        <v>32828799.39712093</v>
-      </c>
-      <c r="G33" t="n">
         <v>0.05739409463844274</v>
       </c>
     </row>
@@ -1284,12 +1183,9 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>61286695.90971176</v>
+        <v>39869540.08278</v>
       </c>
       <c r="F34" t="n">
-        <v>39869540.08278</v>
-      </c>
-      <c r="G34" t="n">
         <v>0.2144684184300855</v>
       </c>
     </row>
@@ -1309,12 +1205,9 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>67058269.2822201</v>
+        <v>43624188.17565365</v>
       </c>
       <c r="F35" t="n">
-        <v>43624188.17565365</v>
-      </c>
-      <c r="G35" t="n">
         <v>0.09417334850309249</v>
       </c>
     </row>
@@ -1334,12 +1227,9 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>71128506.47117691</v>
+        <v>46272046.44803639</v>
       </c>
       <c r="F36" t="n">
-        <v>46272046.44803639</v>
-      </c>
-      <c r="G36" t="n">
         <v>0.06069702115076808</v>
       </c>
     </row>
